--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>10584.5234</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2199.785428011348</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135931.5094617436</v>
+        <v>133530.396394537</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661333</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>186901.50147</v>
+        <v>192800.1512841276</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>210179.6724662211</v>
+        <v>197697.80047248</v>
       </c>
       <c r="M2" t="n">
-        <v>61707.55240650456</v>
+        <v>61893.07227245998</v>
       </c>
       <c r="N2" t="n">
-        <v>58877.98922090788</v>
+        <v>58880.56082384131</v>
       </c>
       <c r="O2" t="n">
-        <v>36082.31368660463</v>
+        <v>36073.5392825317</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42248.94134395484</v>
+        <v>44507.44746876459</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290498.8644271621</v>
+        <v>288106.7952418633</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>126548.0892020703</v>
+        <v>134880.6965784706</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>797561.6771491226</v>
+        <v>780707.161392082</v>
       </c>
       <c r="M2" t="n">
-        <v>188384.9586650183</v>
+        <v>188788.328952058</v>
       </c>
       <c r="N2" t="n">
-        <v>129164.3059972084</v>
+        <v>127722.8651085954</v>
       </c>
       <c r="O2" t="n">
-        <v>59308.13430188643</v>
+        <v>57355.46797973744</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55585.21235018507</v>
+        <v>54684.5820057779</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594459.5419217384</v>
+        <v>594291.2938040108</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>554862.9837875792</v>
+        <v>575434.1627650401</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>688664.363468301</v>
+        <v>650631.8824846881</v>
       </c>
       <c r="M2" t="n">
-        <v>381834.5528079097</v>
+        <v>379217.4304396501</v>
       </c>
       <c r="N2" t="n">
-        <v>99192.5862989692</v>
+        <v>99965.89453763465</v>
       </c>
       <c r="O2" t="n">
-        <v>172128.711571535</v>
+        <v>171839.4692743387</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10584.5234</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2199.785428011348</v>
+        <v>1812.803126660054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>133530.396394537</v>
+        <v>4622.8361210227</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>2428.77771379855</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>192800.1512841276</v>
+        <v>10371.325902912</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>197697.80047248</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61893.07227245998</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58880.56082384131</v>
+        <v>1632.534049630441</v>
       </c>
       <c r="O2" t="n">
-        <v>36073.5392825317</v>
+        <v>2420.79197950242</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>44507.44746876459</v>
+        <v>1358.894601537055</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3025.951641828148</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>288106.7952418633</v>
+        <v>12889.56086624117</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>134880.6965784706</v>
+        <v>19330.19497335958</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>780707.161392082</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>188788.328952058</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>127722.8651085954</v>
+        <v>2773.846293838942</v>
       </c>
       <c r="O2" t="n">
-        <v>57355.46797973744</v>
+        <v>2340.403967713372</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>54684.5820057779</v>
+        <v>1770.119671271456</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4686.043832468928</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594291.2938040108</v>
+        <v>19385.71650516988</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>575434.1627650401</v>
+        <v>28665.83942972087</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>650631.8824846881</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>379217.4304396501</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99965.89453763465</v>
+        <v>5043.434707998173</v>
       </c>
       <c r="O2" t="n">
-        <v>171839.4692743387</v>
+        <v>3834.906109154087</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>247.0922343210123</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>775.978146433487</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>204.0473635070248</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -529,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135931.5094617436</v>
+        <v>135931.5094617446</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661333</v>
+        <v>80959.25712661867</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>210179.6724662211</v>
+        <v>210179.6724662233</v>
       </c>
       <c r="M2" t="n">
-        <v>61707.55240650456</v>
+        <v>61707.55240650091</v>
       </c>
       <c r="N2" t="n">
-        <v>58877.98922090788</v>
+        <v>58877.9892209065</v>
       </c>
       <c r="O2" t="n">
-        <v>36082.31368660463</v>
+        <v>36082.31368660395</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42248.94134395484</v>
+        <v>42248.94134395456</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290498.8644271621</v>
+        <v>290498.8644271605</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>797561.6771491226</v>
+        <v>797561.6771491204</v>
       </c>
       <c r="M2" t="n">
-        <v>188384.9586650183</v>
+        <v>188384.9586650218</v>
       </c>
       <c r="N2" t="n">
-        <v>129164.3059972084</v>
+        <v>129164.305997208</v>
       </c>
       <c r="O2" t="n">
-        <v>59308.13430188643</v>
+        <v>59308.13430188708</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55585.21235018507</v>
+        <v>55585.21235018076</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594459.5419217384</v>
+        <v>594459.5419217412</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>554862.9837875792</v>
+        <v>554862.9837875771</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>688664.363468301</v>
       </c>
       <c r="M2" t="n">
-        <v>381834.5528079097</v>
+        <v>381834.552807909</v>
       </c>
       <c r="N2" t="n">
-        <v>99192.5862989692</v>
+        <v>99192.58629897377</v>
       </c>
       <c r="O2" t="n">
-        <v>172128.711571535</v>
+        <v>172128.7115715367</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10584.5234</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1638.785132452183</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135931.5094617446</v>
+        <v>293730.4047649619</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661867</v>
+        <v>80959.25712662081</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>186901.50147</v>
+        <v>142264.654638</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>210179.6724662233</v>
+        <v>525652.4050318201</v>
       </c>
       <c r="M2" t="n">
-        <v>61707.55240650091</v>
+        <v>111229.368349</v>
       </c>
       <c r="N2" t="n">
-        <v>58877.9892209065</v>
+        <v>70782.65578705262</v>
       </c>
       <c r="O2" t="n">
-        <v>36082.31368660395</v>
+        <v>67193.45619106332</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42248.94134395456</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>34573.22838957706</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290498.8644271605</v>
+        <v>169037.9833850653</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>126548.0892020703</v>
+        <v>133904.8587113994</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>797561.6771491204</v>
+        <v>152852.8481221266</v>
       </c>
       <c r="M2" t="n">
-        <v>188384.9586650218</v>
+        <v>60332.81188111824</v>
       </c>
       <c r="N2" t="n">
-        <v>129164.305997208</v>
+        <v>21692.66563562064</v>
       </c>
       <c r="O2" t="n">
-        <v>59308.13430188708</v>
+        <v>11699.32491036274</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55585.21235018076</v>
+        <v>19961.89159356778</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>18679.35888719985</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594459.5419217412</v>
+        <v>121923.8325773797</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>554862.9837875771</v>
+        <v>170357.2063739901</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>688664.363468301</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>381834.552807909</v>
+        <v>56746.14559950977</v>
       </c>
       <c r="N2" t="n">
-        <v>99192.58629897377</v>
+        <v>44112.65282947898</v>
       </c>
       <c r="O2" t="n">
-        <v>172128.7115715367</v>
+        <v>52196.45092767161</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10584.5234</v>
+        <v>35740.49118100613</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>656531.4246997499</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>135931.5094617446</v>
+        <v>115553.0700760342</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661867</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>186901.50147</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>210179.6724662233</v>
+        <v>20387.08243530125</v>
       </c>
       <c r="M2" t="n">
-        <v>61707.55240650091</v>
-      </c>
-      <c r="N2" t="n">
-        <v>58877.9892209065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>36082.31368660395</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>42248.94134395456</v>
+        <v>66640.01982614903</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1479498.676089685</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290498.8644271605</v>
+        <v>68530.66641448584</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49137.49829535586</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>126548.0892020703</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>797561.6771491204</v>
+        <v>63522.8910315974</v>
       </c>
       <c r="M2" t="n">
-        <v>188384.9586650218</v>
-      </c>
-      <c r="N2" t="n">
-        <v>129164.305997208</v>
-      </c>
-      <c r="O2" t="n">
-        <v>59308.13430188708</v>
+        <v>37087.76506166222</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>55585.21235018076</v>
+        <v>155809.987570064</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1063425.965313668</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>594459.5419217412</v>
+        <v>49595.93992067307</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41476.88085549831</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>554862.9837875771</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>688664.363468301</v>
+        <v>78535.36494419698</v>
       </c>
       <c r="M2" t="n">
-        <v>381834.552807909</v>
-      </c>
-      <c r="N2" t="n">
-        <v>99192.58629897377</v>
-      </c>
-      <c r="O2" t="n">
-        <v>172128.7115715367</v>
+        <v>39407.57948732967</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -982,12 +924,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1125,12 +1051,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,55 +461,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -517,10 +507,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39384.34305843788</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>664808.5919970301</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +519,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>106856.3911138124</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>25342.77928792158</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +540,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>20541.59681659201</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1632.534049630441</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>19940.13531829303</v>
       </c>
     </row>
   </sheetData>
@@ -573,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,55 +588,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -660,10 +634,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>76693.51572896753</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>1469620.838620507</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>58044.50481456321</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>48766.68152149468</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +667,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>58909.6824199376</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2773.846293838942</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>37387.51309567128</v>
       </c>
     </row>
   </sheetData>
@@ -716,7 +684,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,55 +715,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -803,10 +761,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>169854.3815116933</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>1028135.523307525</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>40159.13291435583</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41828.18095705006</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +794,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>79713.19216830072</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5043.434707998173</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>39123.60766563773</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -890,55 +842,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -983,12 +925,6 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>247.0922343210123</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,55 +969,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1089,7 +1015,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1126,12 +1052,6 @@
       </c>
       <c r="M2" t="n">
         <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>204.0473635070248</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1176,55 +1096,45 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>cp_hp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ttes</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1268,12 +1178,6 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,29 +517,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35740.49118100613</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>656531.4246997499</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>348500.2913702198</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>115553.0700760342</v>
+        <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>10001.38367865942</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>25342.77928792126</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -540,9 +550,15 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20387.08243530125</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2171051.48368801</v>
+      </c>
+      <c r="O2" t="n">
         <v>19940.13531829329</v>
       </c>
     </row>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,29 +660,29 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>66640.01982614903</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1479498.676089685</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1146541.701244244</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>68530.66641448584</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>49137.49829535586</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63522.8910315974</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37087.76506166222</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>99597.19369803484</v>
+      </c>
+      <c r="O2" t="n">
+        <v>37087.76506166223</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>155809.987570064</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1063425.965313668</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1041294.226359141</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>49595.93992067307</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>147293.0209330535</v>
       </c>
       <c r="G2" t="n">
-        <v>41476.88085549831</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41476.88085549879</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>78535.36494419698</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39407.57948732967</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>54681.56553335959</v>
+      </c>
+      <c r="O2" t="n">
+        <v>39407.57948732926</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.645027391030453e-08</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>348500.2913702198</v>
+        <v>211962.1639127643</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>10001.38367865942</v>
+        <v>70115.93805924288</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.77928792126</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50135.49447909096</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2171051.48368801</v>
+        <v>649060.9194963673</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829329</v>
+        <v>110027.3919993753</v>
       </c>
     </row>
   </sheetData>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1146541.701244244</v>
+        <v>1354403.413882712</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>79584.02421173704</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>49137.49829535586</v>
+        <v>29197.82044889899</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>99597.19369803484</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>37087.76506166223</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>58578.18991320204</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1041294.226359141</v>
+        <v>1226441.167109787</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>147293.0209330535</v>
+        <v>30188.86617373489</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41476.88085549879</v>
+        <v>67040.79910513425</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>54681.56553335959</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39407.57948732926</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.645027391030453e-08</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,60 +446,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -507,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39384.34305843788</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>664808.5919970301</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>222489.6157305166</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106856.3911138124</v>
+        <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>65601.72332187693</v>
       </c>
       <c r="G2" t="n">
-        <v>25342.77928792158</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>50331.58209140529</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -540,10 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>20541.59681659201</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>19940.13531829303</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>648607.0876758236</v>
+      </c>
+      <c r="O2" t="n">
+        <v>110494.3541404276</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,60 +589,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -634,28 +660,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>76693.51572896753</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1469620.838620507</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1352352.43587376</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>58044.50481456321</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83962.81250698201</v>
       </c>
       <c r="G2" t="n">
-        <v>48766.68152149468</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28981.72057777255</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -667,10 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>58909.6824199376</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>37387.51309567128</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,60 +732,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -761,28 +803,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>169854.3815116933</v>
+        <v>82561.53154123483</v>
       </c>
       <c r="B2" t="n">
-        <v>1028135.523307525</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1179735.942385038</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40159.13291435583</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>13662.67717712691</v>
       </c>
       <c r="G2" t="n">
-        <v>41828.18095705006</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66815.20021227101</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -794,10 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>79713.19216830072</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>39123.60766563773</v>
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -811,7 +859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,60 +875,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -924,6 +982,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,60 +1018,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1051,6 +1125,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1065,7 +1145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1081,60 +1161,70 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ieh</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>chp</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>ac</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ab_ct</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>ab_hp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>cp_ct</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>cp_hp</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>ttes</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>btes</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>ites</t>
         </is>
@@ -1178,6 +1268,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>30455.62741043213</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>211962.1639127643</v>
+        <v>195822.2040511559</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>70115.93805924288</v>
+        <v>112080.0296121413</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>50135.49447909096</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>649060.9194963673</v>
+        <v>28630.27847649337</v>
       </c>
       <c r="O2" t="n">
-        <v>110027.3919993753</v>
+        <v>19940.13531829329</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>16491.36771993692</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1354403.413882712</v>
+        <v>1492260.293388923</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>79584.02421173704</v>
+        <v>54582.50232754245</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29197.82044889899</v>
+        <v>49137.49829535586</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>78568.34530138643</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37087.76506166222</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>58578.18991320204</v>
+        <v>151702.8691057313</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1226441.167109787</v>
+        <v>1058869.678268272</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>30188.86617373489</v>
+        <v>65709.65325847814</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>67040.79910513425</v>
+        <v>41476.88085549835</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>48817.88654030855</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39407.57948732968</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>34342.30276161566</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>222489.6157305166</v>
+        <v>202966.1332037171</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>6952028.899878451</v>
       </c>
       <c r="F2" t="n">
-        <v>65601.72332187693</v>
+        <v>104581.4894156114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.7792879215</v>
       </c>
       <c r="I2" t="n">
-        <v>50331.58209140529</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>648607.0876758236</v>
+        <v>26892.07453868089</v>
       </c>
       <c r="O2" t="n">
-        <v>110494.3541404276</v>
+        <v>19940.13531829309</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>27148.91927230698</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1352352.43587376</v>
+        <v>1472599.056349339</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>83962.81250698201</v>
+        <v>60251.15946181817</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>28981.72057777255</v>
+        <v>48766.68152149476</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>74001.02896389201</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>37387.51309567123</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82561.53154123483</v>
+        <v>172007.6410165265</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1179735.942385038</v>
+        <v>1029712.730901895</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>13662.67717712691</v>
+        <v>37254.24314761105</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>66815.20021227101</v>
+        <v>41828.1809570509</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>47669.88771783512</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>39123.60766563698</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -517,22 +517,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>30455.62741043213</v>
+        <v>31037.35953709716</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>195822.2040511559</v>
+        <v>466253.5738505773</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6952028.899878451</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>112080.0296121413</v>
+        <v>112135.3952582715</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>28630.27847649337</v>
+        <v>27869.36334782206</v>
       </c>
       <c r="O2" t="n">
         <v>19940.13531829329</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16491.36771993692</v>
+        <v>16121.73855462885</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1492260.293388923</v>
+        <v>1492157.440857949</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>54582.50232754245</v>
+        <v>54947.68478489857</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>49137.49829535586</v>
+        <v>49137.49829535587</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>78568.34530138643</v>
+        <v>79114.06460601508</v>
       </c>
       <c r="O2" t="n">
-        <v>37087.76506166222</v>
+        <v>37087.76506166223</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151702.8691057313</v>
+        <v>151054.3914169921</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1058869.678268272</v>
+        <v>1059401.569594492</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>65709.65325847814</v>
+        <v>65423.14481100797</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41476.88085549835</v>
+        <v>41476.88085548372</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48817.88654030855</v>
+        <v>49306.80477879173</v>
       </c>
       <c r="O2" t="n">
-        <v>39407.57948732968</v>
+        <v>39407.57948734319</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -517,28 +517,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34342.30276161566</v>
+        <v>34576.32876604809</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>202966.1332037171</v>
+        <v>473512.2198540746</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6952028.899878451</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>104581.4894156114</v>
+        <v>104652.8316756397</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.7792879215</v>
+        <v>25342.77928792128</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26892.07453868089</v>
+        <v>26204.64700114557</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829309</v>
+        <v>19940.13531829326</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27148.91927230698</v>
+        <v>28285.41792192322</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1472599.056349339</v>
+        <v>1472612.59332239</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60251.15946181817</v>
+        <v>60181.95746959069</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149476</v>
+        <v>48766.68152149497</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>74001.02896389201</v>
+        <v>73854.19649089439</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567123</v>
+        <v>37387.51309567106</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>172007.6410165265</v>
+        <v>170669.6712526473</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.1809570509</v>
+        <v>41828.18095705094</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>47669.88771783512</v>
+        <v>48427.6769497201</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563698</v>
+        <v>39123.60766563696</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1638.785132452183</v>
+        <v>1320.21302159999</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>293730.4047649619</v>
+        <v>294386.0104869407</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712662081</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>142264.654638</v>
+        <v>141747.6361456303</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>525652.4050318201</v>
+        <v>525583.2829870571</v>
       </c>
       <c r="M2" t="n">
-        <v>111229.368349</v>
+        <v>111324.924271</v>
       </c>
       <c r="N2" t="n">
-        <v>70782.65578705262</v>
+        <v>71365.52612246884</v>
       </c>
       <c r="O2" t="n">
-        <v>67193.45619106332</v>
+        <v>68011.00857379404</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>34573.22838957706</v>
+        <v>46114.99750964541</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>169037.9833850653</v>
+        <v>275102.3308773747</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>133904.8587113994</v>
+        <v>186257.2480463011</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>152852.8481221266</v>
+        <v>296535.5563106379</v>
       </c>
       <c r="M2" t="n">
-        <v>60332.81188111824</v>
+        <v>104257.9211117674</v>
       </c>
       <c r="N2" t="n">
-        <v>21692.66563562064</v>
+        <v>37190.87036815702</v>
       </c>
       <c r="O2" t="n">
-        <v>11699.32491036274</v>
+        <v>27504.58861597344</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19961.89159356778</v>
+        <v>19901.87149144481</v>
       </c>
       <c r="B2" t="n">
-        <v>18679.35888719985</v>
+        <v>20277.90980329371</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>121923.8325773797</v>
+        <v>116457.919756194</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>170357.2063739901</v>
+        <v>166252.3492318689</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>56746.14559950977</v>
+        <v>53692.05352104004</v>
       </c>
       <c r="N2" t="n">
-        <v>44112.65282947898</v>
+        <v>50073.96144272469</v>
       </c>
       <c r="O2" t="n">
-        <v>52196.45092767161</v>
+        <v>56800.26050142136</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>27869.36334782206</v>
+        <v>27869.36334782205</v>
       </c>
       <c r="O2" t="n">
         <v>19940.13531829329</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16121.73855462885</v>
+        <v>16121.73855462888</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>54947.68478489857</v>
+        <v>54947.68478489854</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>79114.06460601508</v>
+        <v>79114.06460601551</v>
       </c>
       <c r="O2" t="n">
         <v>37087.76506166223</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151054.3914169921</v>
+        <v>151054.3914169929</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1059401.569594492</v>
+        <v>1059401.569594493</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>65423.14481100797</v>
+        <v>65423.1448110031</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41476.88085548372</v>
+        <v>41476.88085550528</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49306.80477879173</v>
+        <v>49306.80477879263</v>
       </c>
       <c r="O2" t="n">
-        <v>39407.57948734319</v>
+        <v>39407.57948732324</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34576.32876604809</v>
+        <v>34576.32876604806</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>473512.2198540746</v>
+        <v>473467.5218859861</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>104652.8316756397</v>
+        <v>104672.020657225</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.77928792128</v>
+        <v>25342.7792879215</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26204.64700114557</v>
+        <v>25780.61504590484</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829326</v>
+        <v>19940.13531829309</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28285.41792192322</v>
+        <v>28115.596991665</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1472612.59332239</v>
+        <v>1473169.246758097</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60181.95746959069</v>
+        <v>60163.34415745302</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149497</v>
+        <v>48766.68152149476</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>73854.19649089439</v>
+        <v>71275.42581982065</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567106</v>
+        <v>37387.51309567123</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>170669.6712526473</v>
+        <v>170807.0348617603</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1029712.730901895</v>
+        <v>1029725.643138789</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37254.24314761105</v>
+        <v>37769.8176933708</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705094</v>
+        <v>41828.18095705425</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>48427.6769497201</v>
+        <v>49297.9687380765</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563696</v>
+        <v>39123.60766563383</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2030" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2035" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2040" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2045" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2050" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="2025" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2030" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2035" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="2040" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="2045" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="2050" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -517,13 +517,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34576.32876604806</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>473467.5218859861</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -532,13 +532,13 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>104672.020657225</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>25342.7792879215</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>25780.61504590484</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>19940.13531829309</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -660,13 +660,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28115.596991665</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1473169.246758097</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -675,13 +675,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60163.34415745302</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>48766.68152149476</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>71275.42581982065</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>37387.51309567123</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>170807.0348617603</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1029725.643138789</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>37769.8176933708</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705425</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49297.9687380765</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563383</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>27869.36334782205</v>
+        <v>27869.36334782206</v>
       </c>
       <c r="O2" t="n">
         <v>19940.13531829329</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>16121.73855462888</v>
+        <v>16121.73855462887</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>49137.49829535587</v>
+        <v>49137.49829535586</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>79114.06460601551</v>
+        <v>79114.06460601481</v>
       </c>
       <c r="O2" t="n">
         <v>37087.76506166223</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>151054.3914169929</v>
+        <v>151054.3914169917</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1059401.569594493</v>
+        <v>1059401.569594492</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>65423.1448110031</v>
+        <v>65423.14481101095</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41476.88085550528</v>
+        <v>41476.88085550124</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>49306.80477879263</v>
+        <v>49306.80477879108</v>
       </c>
       <c r="O2" t="n">
-        <v>39407.57948732324</v>
+        <v>39407.57948732692</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712661896</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>525583.2829870571</v>
+        <v>525583.2829870572</v>
       </c>
       <c r="M2" t="n">
         <v>111324.924271</v>
       </c>
       <c r="N2" t="n">
-        <v>71365.52612246884</v>
+        <v>71365.5261224687</v>
       </c>
       <c r="O2" t="n">
-        <v>68011.00857379404</v>
+        <v>68011.00857379401</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>275102.3308773747</v>
+        <v>275102.3308773746</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>296535.5563106379</v>
+        <v>296535.5563106377</v>
       </c>
       <c r="M2" t="n">
         <v>104257.9211117674</v>
       </c>
       <c r="N2" t="n">
-        <v>37190.87036815702</v>
+        <v>37190.87036815696</v>
       </c>
       <c r="O2" t="n">
-        <v>27504.58861597344</v>
+        <v>27504.58861597348</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>19901.87149144481</v>
+        <v>19901.87149144449</v>
       </c>
       <c r="B2" t="n">
         <v>20277.90980329371</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>116457.919756194</v>
+        <v>116457.9197561944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>166252.3492318689</v>
+        <v>166252.3492318716</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>53692.05352104004</v>
       </c>
       <c r="N2" t="n">
-        <v>50073.96144272469</v>
+        <v>50073.96144272518</v>
       </c>
       <c r="O2" t="n">
-        <v>56800.26050142136</v>
+        <v>56800.26050141915</v>
       </c>
     </row>
   </sheetData>

--- a/results/[2_high_electricity_prices]_#_inv_cost.xlsx
+++ b/results/[2_high_electricity_prices]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
